--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Workspace\NVNA-Schedule-Exporter\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C79D24-E987-4614-9F4A-EF0CD5E89965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D2C1C-1803-488C-B072-65DCAA789D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{93698C98-C1B3-49DB-A0F7-76C9B7114646}"/>
   </bookViews>
@@ -15786,8 +15786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB09313-7A90-4E7F-BAB7-03A8317B65E5}">
   <dimension ref="A1:B894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B894" sqref="B894"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="B755" sqref="B755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
